--- a/backend/plantilla_vehiculos.xlsx
+++ b/backend/plantilla_vehiculos.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Resolución Padre</t>
+          <t>Resolución Primigenia</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Resolución Primigenia</t>
+          <t>Resolución Hija</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -576,11 +576,7 @@
           <t>001-2024-DRTC-PUNO</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>001-2024-DRTC-PUNO</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>01,02</t>
@@ -683,11 +679,7 @@
           <t>002-2024-DRTC-PUNO</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>002-2024-DRTC-PUNO</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>03</t>

--- a/backend/plantilla_vehiculos.xlsx
+++ b/backend/plantilla_vehiculos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,100 +461,105 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Sede de Registro</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Categoría</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Marca</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Modelo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Año Fabricación</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Número Serie</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Chasis</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Ejes</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Asientos</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Peso Neto (kg)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Peso Bruto (kg)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Largo (m)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Ancho (m)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Alto (m)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Tipo Combustible</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Cilindrada</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Potencia (HP)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Observaciones</t>
         </is>
@@ -584,80 +589,85 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>PUNO</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>MERCEDES BENZ</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>O500</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>2020</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>BLANCO</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>MB123456</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>OM 457 LA</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>WDB9066131L123456</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>2</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>50</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>8500</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>16000</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>12</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>2.55</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>3.2</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>DIESEL</t>
         </is>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>11967</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>354</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>ACTIVO</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Vehículo de ejemplo</t>
         </is>
@@ -687,80 +697,85 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>AREQUIPA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>N3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>VOLVO</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>FH16</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>2019</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>AZUL</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>VL789012</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>D16G750</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>VOLVOH16C123456</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>3</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>12000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>26000</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>16</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>2.6</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>3.8</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>DIESEL</t>
         </is>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>16000</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>750</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>ACTIVO</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Camión de carga</t>
         </is>

--- a/backend/plantilla_vehiculos.xlsx
+++ b/backend/plantilla_vehiculos.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>001-2024-DRTC-PUNO</t>
+          <t>R-1001-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>002-2024-DRTC-PUNO</t>
+          <t>R-1002-2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>

--- a/backend/plantilla_vehiculos.xlsx
+++ b/backend/plantilla_vehiculos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,100 +466,115 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Placa Sustituida</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Motivo Sustitución</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Resolución Sustitución</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Categoría</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Marca</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Modelo</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Año Fabricación</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Número Serie</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Chasis</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Ejes</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Asientos</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Peso Neto (kg)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Peso Bruto (kg)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Largo (m)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Ancho (m)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Alto (m)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Tipo Combustible</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Cilindrada</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Potencia (HP)</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Observaciones</t>
         </is>
@@ -592,82 +607,85 @@
           <t>PUNO</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>MERCEDES BENZ</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>O500</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>2020</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>BLANCO</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>MB123456</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>OM 457 LA</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>WDB9066131L123456</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>2</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>50</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>8500</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>16000</v>
       </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
         <v>12</v>
       </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>2.55</v>
       </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
         <v>3.2</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>DIESEL</t>
         </is>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>11967</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>354</v>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>ACTIVO</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>Vehículo de ejemplo</t>
         </is>
@@ -702,80 +720,95 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>OLD-789</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ANTIGÜEDAD</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>R-1002-2024</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>N3</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>VOLVO</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>FH16</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>2019</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>AZUL</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>VL789012</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>D16G750</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>VOLVOH16C123456</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>3</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>12000</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>26000</v>
       </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>16</v>
       </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>2.6</v>
       </c>
-      <c r="U3" t="n">
+      <c r="X3" t="n">
         <v>3.8</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>DIESEL</t>
         </is>
       </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>16000</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>750</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>ACTIVO</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>Camión de carga</t>
         </is>

--- a/backend/plantilla_vehiculos.xlsx
+++ b/backend/plantilla_vehiculos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/backend/plantilla_vehiculos.xlsx
+++ b/backend/plantilla_vehiculos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/backend/plantilla_vehiculos.xlsx
+++ b/backend/plantilla_vehiculos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Placa Sustituida</t>
+          <t>Placa de Baja</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -476,105 +476,115 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Resolución Sustitución</t>
+          <t>Categoría</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Categoría</t>
+          <t>Marca</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Marca</t>
+          <t>Modelo</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Modelo</t>
+          <t>Año Fabricación</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Año Fabricación</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Color</t>
+          <t>Número Serie</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Número Serie</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>Chasis</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Chasis</t>
+          <t>Ejes</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Ejes</t>
+          <t>Cilindros</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Ruedas</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Asientos</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Peso Neto (kg)</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Peso Bruto (kg)</t>
+          <t>Peso Neto (t)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>Peso Bruto (t)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Carga Útil (t)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>Largo (m)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Ancho (m)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Alto (m)</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Tipo Combustible</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Cilindrada</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Potencia (HP)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Observaciones</t>
         </is>
@@ -609,83 +619,91 @@
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>M3</t>
+          <t>MERCEDES BENZ</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>MERCEDES BENZ</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
           <t>O500</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="L2" t="n">
         <v>2020</v>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>BLANCO</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>BLANCO</t>
+          <t>MB123456</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>MB123456</t>
+          <t>OM 457 LA</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>OM 457 LA</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
           <t>WDB9066131L123456</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" t="n">
         <v>50</v>
       </c>
-      <c r="T2" t="n">
-        <v>8500</v>
-      </c>
       <c r="U2" t="n">
-        <v>16000</v>
+        <v>8.5</v>
       </c>
       <c r="V2" t="n">
+        <v>16</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X2" t="n">
         <v>12</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>2.55</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>3.2</v>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>DIESEL</t>
         </is>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>11967</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>354</v>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>ACTIVO</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Vehículo de ejemplo</t>
         </is>
@@ -730,85 +748,89 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>R-1002-2024</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>N3</t>
+          <t>VOLVO</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>VOLVO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
           <t>FH16</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="L3" t="n">
         <v>2019</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VL789012</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>VL789012</t>
+          <t>D16G750</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>D16G750</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
           <t>VOLVOH16C123456</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="n">
         <v>2</v>
       </c>
-      <c r="T3" t="n">
-        <v>12000</v>
-      </c>
       <c r="U3" t="n">
-        <v>26000</v>
+        <v>12</v>
       </c>
       <c r="V3" t="n">
+        <v>26</v>
+      </c>
+      <c r="W3" t="n">
+        <v>14</v>
+      </c>
+      <c r="X3" t="n">
         <v>16</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>2.6</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>3.8</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>DIESEL</t>
         </is>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>16000</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
         <v>750</v>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>ACTIVO</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Camión de carga</t>
         </is>
